--- a/Processos/Template/CheckList de Qualidade.xlsx
+++ b/Processos/Template/CheckList de Qualidade.xlsx
@@ -9,14 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="640" yWindow="1180" windowWidth="32000" windowHeight="9440" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="640" yWindow="1180" windowWidth="32000" windowHeight="9440" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Resumo" sheetId="1" r:id="rId1"/>
     <sheet name="Marco da concepção" sheetId="2" r:id="rId2"/>
     <sheet name="Marco da elaboração" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -375,15 +375,12 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="4" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -391,11 +388,14 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="4" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -407,214 +407,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="26">
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDA9694"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF95B3D7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC4D79B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDA9694"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC4D79B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -889,7 +682,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N20"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
       <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
@@ -932,55 +725,55 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
     </row>
     <row r="7" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
     </row>
     <row r="8" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
     </row>
     <row r="9" spans="1:14" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="3"/>
-      <c r="J9" s="14" t="s">
+      <c r="J9" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="K9" s="15">
+      <c r="K9" s="10">
         <f>IF(SUM(G19:G20)&gt;0,(SUM(C19:C20)+SUM(D19:D20)*0.5+SUM(F19:F20))/SUM(G19:G20),0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="8" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="8" t="s">
         <v>19</v>
       </c>
     </row>
@@ -988,35 +781,35 @@
       <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="8" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="8" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="9" t="s">
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="I17" s="9" t="s">
+      <c r="I17" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B18" s="12"/>
+      <c r="B18" s="13"/>
       <c r="C18" s="6" t="s">
         <v>3</v>
       </c>
@@ -1032,11 +825,11 @@
       <c r="G18" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C19" s="4">
@@ -1066,7 +859,7 @@
       <c r="I19" s="4"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C20" s="4">
@@ -1112,7 +905,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2:C6"/>
     </sheetView>
   </sheetViews>
